--- a/Exercises/DataSets/dummy_data.xlsx
+++ b/Exercises/DataSets/dummy_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/487e8112d4f34bbc/Documentos/GitHub/Win11_Python-PipVenv-Github/Exercises/DataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3AF6A0-8FDB-4791-B6B6-F31C3545BFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{BC3AF6A0-8FDB-4791-B6B6-F31C3545BFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB8B908-42B0-4DB0-9886-9B40986BE2FF}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="33094" windowHeight="17974" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="473">
   <si>
     <t>Region</t>
   </si>
@@ -1433,6 +1433,12 @@
   </si>
   <si>
     <t>Item 7495 - sound</t>
+  </si>
+  <si>
+    <t>ExcesiveNA</t>
+  </si>
+  <si>
+    <t>Not empty</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1473,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1490,16 +1496,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1515,6 +1535,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1804,9 +1828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="J180" sqref="J180"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
   <cols>
@@ -1816,7 +1842,7 @@
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,8 +1870,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="J1" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1874,7 +1903,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1903,7 +1932,7 @@
         <v>45591</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1932,7 +1961,7 @@
         <v>45753</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1961,7 +1990,7 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1990,7 +2019,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2016,7 +2045,7 @@
         <v>45714</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2042,7 +2071,7 @@
         <v>45749</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2071,7 +2100,7 @@
         <v>45735</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2097,7 +2126,7 @@
         <v>45634</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2126,7 +2155,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2152,7 +2181,7 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2178,7 +2207,7 @@
         <v>45598</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2207,7 +2236,7 @@
         <v>45616</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2236,7 +2265,7 @@
         <v>45613</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2262,7 +2291,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2291,7 +2320,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2320,7 +2349,7 @@
         <v>45530</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2349,7 +2378,7 @@
         <v>45543</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +2407,7 @@
         <v>45763</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2407,7 +2436,7 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2436,7 +2465,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2465,7 +2494,7 @@
         <v>45570</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2494,7 +2523,7 @@
         <v>45512</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2522,8 +2551,11 @@
       <c r="I25" s="2">
         <v>45432</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="J25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2552,7 +2584,7 @@
         <v>45676</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2581,7 +2613,7 @@
         <v>45704</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2642,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2636,7 +2668,7 @@
         <v>45416</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2665,7 +2697,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2691,7 +2723,7 @@
         <v>45454</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -3169,7 +3201,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -3198,7 +3230,7 @@
         <v>45614</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -3226,8 +3258,11 @@
       <c r="I50" s="2">
         <v>45496</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="J50" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3256,7 +3291,7 @@
         <v>45647</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -3282,7 +3317,7 @@
         <v>45533</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -3311,7 +3346,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3340,7 +3375,7 @@
         <v>45512</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -3366,7 +3401,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3395,7 +3430,7 @@
         <v>45464</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -3424,7 +3459,7 @@
         <v>45557</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3453,7 +3488,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3482,7 +3517,7 @@
         <v>45411</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3508,7 +3543,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3537,7 +3572,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -3566,7 +3601,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -3595,7 +3630,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -3624,7 +3659,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3653,7 +3688,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3682,7 +3717,7 @@
         <v>45595</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3708,7 +3743,7 @@
         <v>45673</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -3737,7 +3772,7 @@
         <v>45529</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3766,7 +3801,7 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3792,7 +3827,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -3821,7 +3856,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -3850,7 +3885,7 @@
         <v>45522</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3876,7 +3911,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -3902,7 +3937,7 @@
         <v>45493</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3930,8 +3965,11 @@
       <c r="I75" s="2">
         <v>45460</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="J75" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3960,7 +3998,7 @@
         <v>45612</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3989,7 +4027,7 @@
         <v>45701</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -4018,7 +4056,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -4047,7 +4085,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -4525,7 +4563,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -4554,7 +4592,7 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -4583,7 +4621,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -4612,7 +4650,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4634,8 +4672,11 @@
       <c r="I100" s="2">
         <v>45663</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="J100" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -4664,7 +4705,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -4690,7 +4731,7 @@
         <v>45598</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -4719,7 +4760,7 @@
         <v>45417</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -4748,7 +4789,7 @@
         <v>45659</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -4777,7 +4818,7 @@
         <v>45598</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -4806,7 +4847,7 @@
         <v>45530</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4835,7 +4876,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -4864,7 +4905,7 @@
         <v>45718</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -4893,7 +4934,7 @@
         <v>45407</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -4922,7 +4963,7 @@
         <v>45544</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -4951,7 +4992,7 @@
         <v>45609</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -4980,7 +5021,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -5009,7 +5050,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -5032,7 +5073,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -5061,7 +5102,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -5090,7 +5131,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -5119,7 +5160,7 @@
         <v>45502</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -5148,7 +5189,7 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -5177,7 +5218,7 @@
         <v>45663</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -5206,7 +5247,7 @@
         <v>45724</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -5235,7 +5276,7 @@
         <v>45439</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -5261,7 +5302,7 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -5290,7 +5331,7 @@
         <v>45727</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -5316,7 +5357,7 @@
         <v>45430</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -5344,8 +5385,11 @@
       <c r="I125" s="2">
         <v>45416</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="J125" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -5374,7 +5418,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -5400,7 +5444,7 @@
         <v>45470</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -5875,7 +5919,7 @@
         <v>45557</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -5901,7 +5945,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -5930,7 +5974,7 @@
         <v>45551</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -5956,7 +6000,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -5985,7 +6029,7 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -6011,7 +6055,7 @@
         <v>45641</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -6039,8 +6083,11 @@
       <c r="I150" s="2">
         <v>45409</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="J150" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -6069,7 +6116,7 @@
         <v>45693</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -6095,7 +6142,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -6124,7 +6171,7 @@
         <v>45670</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -6150,7 +6197,7 @@
         <v>45625</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -6179,7 +6226,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -6208,7 +6255,7 @@
         <v>45485</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -6234,7 +6281,7 @@
         <v>45729</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -6260,7 +6307,7 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -6289,7 +6336,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -6318,7 +6365,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -6344,7 +6391,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -6370,7 +6417,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -6399,7 +6446,7 @@
         <v>45705</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -6428,7 +6475,7 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -6457,7 +6504,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -6486,7 +6533,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -6515,7 +6562,7 @@
         <v>45486</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -6544,7 +6591,7 @@
         <v>45721</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -6570,7 +6617,7 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -6593,7 +6640,7 @@
         <v>45677</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -6622,7 +6669,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -6651,7 +6698,7 @@
         <v>45551</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -6671,7 +6718,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -6700,7 +6747,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -6728,8 +6775,11 @@
       <c r="I175" s="2">
         <v>45579</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="J175" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -7210,7 +7260,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -7239,7 +7289,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -7268,7 +7318,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -7297,7 +7347,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -7326,7 +7376,7 @@
         <v>45737</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -7352,7 +7402,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -7381,7 +7431,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -7410,7 +7460,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -7438,8 +7488,11 @@
       <c r="I200" s="2">
         <v>45539</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="J200" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -7468,145 +7521,259 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A202" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202">
+        <v>405.47</v>
+      </c>
+      <c r="E202" t="s">
+        <v>19</v>
+      </c>
+      <c r="F202" t="s">
+        <v>30</v>
+      </c>
+      <c r="G202" t="s">
+        <v>80</v>
+      </c>
+      <c r="H202" t="s">
+        <v>369</v>
+      </c>
+      <c r="I202" s="2">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203">
+        <v>3001.28</v>
+      </c>
+      <c r="D203">
+        <v>589.71</v>
+      </c>
+      <c r="E203" t="s">
+        <v>21</v>
+      </c>
+      <c r="F203" t="s">
+        <v>25</v>
+      </c>
+      <c r="G203" t="s">
+        <v>90</v>
+      </c>
+      <c r="H203" t="s">
+        <v>469</v>
+      </c>
+      <c r="I203" s="2">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A204" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204">
+        <v>3465.6</v>
+      </c>
+      <c r="D204">
+        <v>1860.22</v>
+      </c>
+      <c r="E204" t="s">
+        <v>21</v>
+      </c>
+      <c r="F204" t="s">
+        <v>51</v>
+      </c>
+      <c r="G204" t="s">
+        <v>169</v>
+      </c>
+      <c r="H204" t="s">
+        <v>279</v>
+      </c>
+      <c r="I204" s="2">
+        <v>45539</v>
+      </c>
+      <c r="J204" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A205" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B205" t="s">
         <v>17</v>
       </c>
       <c r="C205">
-        <v>1272.3</v>
-      </c>
-      <c r="D205">
-        <v>210.85</v>
-      </c>
-      <c r="E205" t="s">
-        <v>19</v>
+        <v>710.66</v>
       </c>
       <c r="F205" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G205" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="H205" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="I205" s="2">
-        <v>45598</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A206" t="s">
-        <v>10</v>
-      </c>
-      <c r="B206" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206">
-        <v>4185.25</v>
-      </c>
-      <c r="D206">
-        <v>1836.55</v>
-      </c>
-      <c r="E206" t="s">
-        <v>22</v>
-      </c>
-      <c r="F206" t="s">
-        <v>24</v>
-      </c>
-      <c r="G206" t="s">
-        <v>105</v>
-      </c>
-      <c r="H206" t="s">
-        <v>304</v>
-      </c>
-      <c r="I206" s="2">
-        <v>45633</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A207" t="s">
-        <v>12</v>
-      </c>
-      <c r="B207" t="s">
-        <v>17</v>
-      </c>
-      <c r="C207">
-        <v>1268.8699999999999</v>
-      </c>
-      <c r="D207">
-        <v>594.4</v>
-      </c>
-      <c r="E207" t="s">
-        <v>19</v>
-      </c>
-      <c r="F207" t="s">
-        <v>23</v>
-      </c>
-      <c r="G207" t="s">
-        <v>249</v>
-      </c>
-      <c r="H207" t="s">
-        <v>449</v>
-      </c>
-      <c r="I207" s="2">
-        <v>45524</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.85">
-      <c r="A208" t="s">
-        <v>9</v>
-      </c>
-      <c r="B208" t="s">
-        <v>17</v>
-      </c>
-      <c r="C208">
-        <v>1071.82</v>
-      </c>
-      <c r="D208">
-        <v>1992.36</v>
-      </c>
-      <c r="E208" t="s">
-        <v>21</v>
-      </c>
-      <c r="F208" t="s">
-        <v>51</v>
-      </c>
-      <c r="G208" t="s">
-        <v>268</v>
-      </c>
-      <c r="H208" t="s">
-        <v>468</v>
-      </c>
-      <c r="I208" s="2">
-        <v>45447</v>
-      </c>
-    </row>
+        <v>45663</v>
+      </c>
+      <c r="J205" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.85"/>
     <row r="209" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A209" t="s">
         <v>9</v>
       </c>
       <c r="B209" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209">
+        <v>1272.3</v>
+      </c>
+      <c r="D209">
+        <v>210.85</v>
+      </c>
+      <c r="E209" t="s">
+        <v>19</v>
+      </c>
+      <c r="F209" t="s">
+        <v>53</v>
+      </c>
+      <c r="G209" t="s">
+        <v>174</v>
+      </c>
+      <c r="H209" t="s">
+        <v>374</v>
+      </c>
+      <c r="I209" s="2">
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210">
+        <v>4185.25</v>
+      </c>
+      <c r="D210">
+        <v>1836.55</v>
+      </c>
+      <c r="E210" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" t="s">
+        <v>24</v>
+      </c>
+      <c r="G210" t="s">
+        <v>105</v>
+      </c>
+      <c r="H210" t="s">
+        <v>304</v>
+      </c>
+      <c r="I210" s="2">
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211" t="s">
+        <v>17</v>
+      </c>
+      <c r="C211">
+        <v>1268.8699999999999</v>
+      </c>
+      <c r="D211">
+        <v>594.4</v>
+      </c>
+      <c r="E211" t="s">
+        <v>19</v>
+      </c>
+      <c r="F211" t="s">
+        <v>23</v>
+      </c>
+      <c r="G211" t="s">
+        <v>249</v>
+      </c>
+      <c r="H211" t="s">
+        <v>449</v>
+      </c>
+      <c r="I211" s="2">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>17</v>
+      </c>
+      <c r="C212">
+        <v>1071.82</v>
+      </c>
+      <c r="D212">
+        <v>1992.36</v>
+      </c>
+      <c r="E212" t="s">
+        <v>21</v>
+      </c>
+      <c r="F212" t="s">
+        <v>51</v>
+      </c>
+      <c r="G212" t="s">
+        <v>268</v>
+      </c>
+      <c r="H212" t="s">
+        <v>468</v>
+      </c>
+      <c r="I212" s="2">
+        <v>45447</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
         <v>15</v>
       </c>
-      <c r="C209">
+      <c r="C213">
         <v>1311.69</v>
       </c>
-      <c r="D209">
+      <c r="D213">
         <v>180.62</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F213" t="s">
         <v>59</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G213" t="s">
         <v>246</v>
       </c>
-      <c r="H209" t="s">
+      <c r="H213" t="s">
         <v>446</v>
       </c>
-      <c r="I209" s="2">
+      <c r="I213" s="2">
         <v>45554</v>
       </c>
     </row>

--- a/Exercises/DataSets/dummy_data.xlsx
+++ b/Exercises/DataSets/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/487e8112d4f34bbc/Documentos/GitHub/Win11_Python-PipVenv-Github/Exercises/DataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{BC3AF6A0-8FDB-4791-B6B6-F31C3545BFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB8B908-42B0-4DB0-9886-9B40986BE2FF}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{BC3AF6A0-8FDB-4791-B6B6-F31C3545BFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D001F61-8241-4FDC-BE42-0142BDAEFD8D}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="33094" windowHeight="17974" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="474">
   <si>
     <t>Region</t>
   </si>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>Not empty</t>
+  </si>
+  <si>
+    <t>Missing</t>
   </si>
 </sst>
 </file>
@@ -1830,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="J180" sqref="J180"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
@@ -2528,7 +2531,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>473</v>
       </c>
       <c r="C25">
         <v>3516.32</v>
@@ -3235,7 +3238,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="C50">
         <v>3352.88</v>
@@ -3942,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="C75">
         <v>3914.26</v>
@@ -4655,7 +4658,7 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>473</v>
       </c>
       <c r="D100">
         <v>1860.22</v>
@@ -5362,7 +5365,7 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>473</v>
       </c>
       <c r="C125">
         <v>4415.22</v>
@@ -6060,7 +6063,7 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>473</v>
       </c>
       <c r="C150">
         <v>4543.95</v>
@@ -6752,7 +6755,7 @@
         <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>473</v>
       </c>
       <c r="C175">
         <v>297.26</v>
@@ -7465,7 +7468,7 @@
         <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>473</v>
       </c>
       <c r="C200">
         <v>3001.28</v>
